--- a/Documents/1. 업무보고/2. 주간업무/6주차/주간업무일지_6주차_김건승.xlsx
+++ b/Documents/1. 업무보고/2. 주간업무/6주차/주간업무일지_6주차_김건승.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\2. 주간업무\6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8181E0-571C-4D58-A734-04466BE2FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E58C64-494A-42CF-B4DA-36148B748A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="435" windowWidth="13905" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1080" windowWidth="15270" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주간업무일지" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t xml:space="preserve">세부 업무 계획 </t>
   </si>
@@ -135,7 +135,19 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>요구분석서 UI작업</t>
+    <t>미완료</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰기 권한에 따른 쓰기 가능 여부는 추후 작업예정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구분석서 UI작업 </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.11</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -621,21 +633,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -654,104 +705,65 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1053,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:Q29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1082,37 +1094,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="2.85" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="4"/>
       <c r="S2" s="5" t="s">
         <v>15</v>
@@ -1127,71 +1139,71 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="J3" s="48" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="J3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="28" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="4"/>
-      <c r="S3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="S3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="J4" s="48" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="4"/>
-      <c r="S4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="S4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1">
       <c r="C5" s="6"/>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="4"/>
-      <c r="S5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="W5" s="46"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="W5" s="65"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1">
       <c r="B6" s="7"/>
@@ -1267,208 +1279,210 @@
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="62"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="S11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" ht="24.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
+      <c r="O12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="33.75" customHeight="1">
       <c r="A16" s="4"/>
@@ -1487,15 +1501,15 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A17" s="4"/>
@@ -1524,208 +1538,212 @@
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="63"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="51" t="s">
+      <c r="S18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="C21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="C22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
+      <c r="O22" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="38"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1">
       <c r="A25" s="4"/>
@@ -1748,11 +1766,11 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
     </row>
     <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A26" s="4"/>
@@ -1810,303 +1828,303 @@
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
     </row>
     <row r="29" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
     </row>
     <row r="33" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A33" s="23"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
     </row>
     <row r="35" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A35" s="23"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A36" s="23"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
     </row>
     <row r="37" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A37" s="23"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
     </row>
     <row r="39" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A39" s="23"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
     </row>
     <row r="40" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A40" s="4"/>
@@ -2126,165 +2144,220 @@
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="68" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23" ht="18" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1">
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="P46:W46"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="E36:Q37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="E38:Q39"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="E30:Q31"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="S22:W22"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="R28:W28"/>
     <mergeCell ref="R29:W29"/>
@@ -2301,72 +2374,17 @@
     <mergeCell ref="E32:Q33"/>
     <mergeCell ref="R36:W36"/>
     <mergeCell ref="R38:W38"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="E36:Q37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="E38:Q39"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="E30:Q31"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="P46:W46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="R44:W44"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Documents/1. 업무보고/2. 주간업무/6주차/주간업무일지_6주차_김건승.xlsx
+++ b/Documents/1. 업무보고/2. 주간업무/6주차/주간업무일지_6주차_김건승.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\2. 주간업무\6주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8181E0-571C-4D58-A734-04466BE2FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F899C-DD4F-467A-A82E-E49C791B878E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="435" windowWidth="13905" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="210" windowWidth="13905" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주간업무일지" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t xml:space="preserve">세부 업무 계획 </t>
   </si>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>게시글 작성/수정/삭제</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글에 댓글 작성/수정/ 삭제</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -621,21 +617,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -654,104 +689,65 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1054,7 +1050,7 @@
   <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:Q29"/>
+      <selection activeCell="C12" sqref="C12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1082,37 +1078,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="2.85" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="4"/>
       <c r="S2" s="5" t="s">
         <v>15</v>
@@ -1127,71 +1123,71 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="J3" s="48" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="J3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="4"/>
-      <c r="S3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="W3" s="44"/>
+      <c r="S3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="W3" s="63"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="J4" s="48" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="J4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="4"/>
-      <c r="S4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="S4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1">
       <c r="C5" s="6"/>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="4"/>
-      <c r="S5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="W5" s="46"/>
+      <c r="S5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="W5" s="65"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1">
       <c r="B6" s="7"/>
@@ -1267,208 +1263,204 @@
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="62"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="51" t="s">
+      <c r="S9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
     </row>
     <row r="10" spans="1:23" ht="18" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="36" t="s">
+      <c r="O10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
     </row>
     <row r="11" spans="1:23" ht="18" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
     </row>
     <row r="12" spans="1:23" ht="24.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
     </row>
     <row r="13" spans="1:23" ht="18" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="33.75" customHeight="1">
       <c r="A16" s="4"/>
@@ -1487,15 +1479,15 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="60"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A17" s="4"/>
@@ -1524,208 +1516,208 @@
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="63"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="51" t="s">
+      <c r="S18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="C19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="36" t="s">
+      <c r="O19" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="C20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="C21" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="36" t="s">
+      <c r="O21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="38"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1">
       <c r="A25" s="4"/>
@@ -1748,11 +1740,11 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
     </row>
     <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A26" s="4"/>
@@ -1810,303 +1802,303 @@
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
     </row>
     <row r="29" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
     </row>
     <row r="31" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
     </row>
     <row r="33" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A33" s="23"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
     </row>
     <row r="35" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A35" s="23"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A36" s="23"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
     </row>
     <row r="37" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A37" s="23"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
     </row>
     <row r="39" spans="1:23" s="25" customFormat="1" ht="15.6" customHeight="1">
       <c r="A39" s="23"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
     </row>
     <row r="40" spans="1:23" ht="8.4499999999999993" customHeight="1">
       <c r="A40" s="4"/>
@@ -2126,165 +2118,220 @@
       <c r="O40" s="16"/>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="68" t="s">
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
     </row>
     <row r="45" spans="1:23" ht="18" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1">
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="R39:W39"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="P46:W46"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="R37:W37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="E36:Q37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="E38:Q39"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="E30:Q31"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="C22:M22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="S22:W22"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="R28:W28"/>
     <mergeCell ref="R29:W29"/>
@@ -2301,72 +2348,17 @@
     <mergeCell ref="E32:Q33"/>
     <mergeCell ref="R36:W36"/>
     <mergeCell ref="R38:W38"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="R37:W37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="E36:Q37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="E38:Q39"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="E30:Q31"/>
+    <mergeCell ref="R39:W39"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="P46:W46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="R44:W44"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
